--- a/fixtures/Ecology 2004 Normalized.xlsx
+++ b/fixtures/Ecology 2004 Normalized.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10720" yWindow="480" windowWidth="25040" windowHeight="17820" tabRatio="500"/>
+    <workbookView xWindow="2920" yWindow="780" windowWidth="25040" windowHeight="17820" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Site" sheetId="4" r:id="rId1"/>
-    <sheet name="Ecology" sheetId="6" r:id="rId2"/>
+    <sheet name="Environment" sheetId="6" r:id="rId2"/>
     <sheet name="Rugosity" sheetId="1" r:id="rId3"/>
     <sheet name="Rock" sheetId="2" r:id="rId4"/>
     <sheet name="Nest" sheetId="3" r:id="rId5"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="102">
   <si>
     <t>Site</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Kigoma Bay</t>
   </si>
   <si>
-    <t>Jakobsen's #1</t>
-  </si>
-  <si>
     <t>4º 55.635 S</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t># individuals</t>
   </si>
   <si>
-    <t>Jakobsen's #2</t>
-  </si>
-  <si>
     <t>4º 54.537 S</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
     <t>2/2004</t>
   </si>
   <si>
-    <t>Jakobsen's # 2</t>
-  </si>
-  <si>
     <t>JB 20040630 Quadrate 3</t>
   </si>
   <si>
@@ -158,9 +149,6 @@
     <t>species</t>
   </si>
   <si>
-    <t>crater/nest diameter</t>
-  </si>
-  <si>
     <t>comments</t>
   </si>
   <si>
@@ -275,9 +263,6 @@
     <t>female</t>
   </si>
   <si>
-    <t>100s</t>
-  </si>
-  <si>
     <t>&gt;100, large school</t>
   </si>
   <si>
@@ -327,6 +312,24 @@
   </si>
   <si>
     <t>Synodontis multipunctatus</t>
+  </si>
+  <si>
+    <t>N. brichardi nest diameter (m)</t>
+  </si>
+  <si>
+    <t>N. furcifer nest diameter (m)</t>
+  </si>
+  <si>
+    <t>N.furcifer nest diameter (m)</t>
+  </si>
+  <si>
+    <t>Jakobsen 1</t>
+  </si>
+  <si>
+    <t>Jakobsen 2</t>
+  </si>
+  <si>
+    <t>&lt;= This one was 100s</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -449,8 +452,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -470,24 +481,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -819,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -838,7 +859,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -880,26 +901,26 @@
         <v>10</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -914,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -947,25 +968,25 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -980,25 +1001,25 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
       <c r="J5" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1013,28 +1034,28 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" t="s">
+      <c r="J6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1053,7 +1074,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1068,13 +1089,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1154,6 +1175,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1167,7 +1189,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1177,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1185,7 +1207,6 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <f>3.2/3</f>
         <v>1.0666666666666667</v>
       </c>
     </row>
@@ -1194,7 +1215,6 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f>3.3/3</f>
         <v>1.0999999999999999</v>
       </c>
     </row>
@@ -1203,7 +1223,6 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f>3.4/3</f>
         <v>1.1333333333333333</v>
       </c>
     </row>
@@ -1236,7 +1255,6 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <f>3.2/3</f>
         <v>1.0666666666666667</v>
       </c>
     </row>
@@ -1245,7 +1263,6 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <f>3.15/3</f>
         <v>1.05</v>
       </c>
     </row>
@@ -1254,7 +1271,6 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <f>4/3</f>
         <v>1.3333333333333333</v>
       </c>
     </row>
@@ -1263,7 +1279,6 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <f>3.2/3</f>
         <v>1.0666666666666667</v>
       </c>
     </row>
@@ -1272,7 +1287,6 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <f>3/3</f>
         <v>1</v>
       </c>
     </row>
@@ -1281,7 +1295,6 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <f>3/3</f>
         <v>1</v>
       </c>
     </row>
@@ -1290,7 +1303,6 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <f>3.4/3</f>
         <v>1.1333333333333333</v>
       </c>
     </row>
@@ -1299,7 +1311,6 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <f>3.25/3</f>
         <v>1.0833333333333333</v>
       </c>
     </row>
@@ -1308,7 +1319,6 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <f>3.25/3</f>
         <v>1.0833333333333333</v>
       </c>
     </row>
@@ -1325,33 +1335,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1365,7 +1376,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1379,7 +1390,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1393,7 +1404,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1407,7 +1418,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1421,7 +1432,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1435,7 +1446,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1449,7 +1460,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1463,7 +1474,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1477,7 +1488,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1491,7 +1502,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1505,7 +1516,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1519,7 +1530,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1533,7 +1544,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1547,7 +1558,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1714,28 +1725,45 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="1"/>
+      <c r="B1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1746,29 +1774,31 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="12"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>45</v>
+      <c r="B1" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1776,13 +1806,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2">
+        <v>42</v>
+      </c>
+      <c r="C2" s="12">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1790,9 +1820,9 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3">
+        <v>44</v>
+      </c>
+      <c r="C3" s="12">
         <v>2</v>
       </c>
     </row>
@@ -1801,13 +1831,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4">
+        <v>45</v>
+      </c>
+      <c r="C4" s="12">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1815,13 +1845,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5">
+        <v>47</v>
+      </c>
+      <c r="C5" s="12">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1829,9 +1859,9 @@
         <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6">
+        <v>48</v>
+      </c>
+      <c r="C6" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1840,13 +1870,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7">
+        <v>49</v>
+      </c>
+      <c r="C7" s="12">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1854,13 +1884,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8">
+        <v>51</v>
+      </c>
+      <c r="C8" s="12">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1868,9 +1898,9 @@
         <v>2</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9">
+        <v>53</v>
+      </c>
+      <c r="C9" s="12">
         <v>15</v>
       </c>
     </row>
@@ -1879,13 +1909,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10">
+        <v>54</v>
+      </c>
+      <c r="C10" s="12">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1893,9 +1923,9 @@
         <v>2</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11">
+        <v>56</v>
+      </c>
+      <c r="C11" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1904,9 +1934,9 @@
         <v>2</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12">
+        <v>57</v>
+      </c>
+      <c r="C12" s="12">
         <v>2</v>
       </c>
     </row>
@@ -1915,9 +1945,9 @@
         <v>2</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13">
+        <v>58</v>
+      </c>
+      <c r="C13" s="12">
         <v>6</v>
       </c>
     </row>
@@ -1926,9 +1956,9 @@
         <v>2</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14">
+        <v>59</v>
+      </c>
+      <c r="C14" s="12">
         <v>4</v>
       </c>
     </row>
@@ -1937,9 +1967,9 @@
         <v>2</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15">
+        <v>60</v>
+      </c>
+      <c r="C15" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1948,9 +1978,9 @@
         <v>2</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="18">
+        <v>61</v>
+      </c>
+      <c r="C16" s="24">
         <v>1</v>
       </c>
       <c r="D16" s="18"/>
@@ -1960,13 +1990,13 @@
         <v>3</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="25">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
         <v>62</v>
-      </c>
-      <c r="C17" s="19">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1974,9 +2004,9 @@
         <v>3</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="19">
+        <v>47</v>
+      </c>
+      <c r="C18" s="25">
         <v>2</v>
       </c>
     </row>
@@ -1985,13 +2015,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="19">
+        <v>63</v>
+      </c>
+      <c r="C19" s="25">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1999,9 +2029,9 @@
         <v>3</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="19">
+        <v>51</v>
+      </c>
+      <c r="C20" s="25">
         <v>2</v>
       </c>
     </row>
@@ -2010,13 +2040,13 @@
         <v>3</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="19">
+        <v>53</v>
+      </c>
+      <c r="C21" s="25">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2024,9 +2054,9 @@
         <v>3</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="19">
+        <v>48</v>
+      </c>
+      <c r="C22" s="25">
         <v>1</v>
       </c>
     </row>
@@ -2035,9 +2065,9 @@
         <v>3</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="19">
+        <v>66</v>
+      </c>
+      <c r="C23" s="25">
         <v>2</v>
       </c>
     </row>
@@ -2045,24 +2075,24 @@
       <c r="A24">
         <v>3</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="12">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
         <v>3</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="12">
         <v>4</v>
       </c>
     </row>
@@ -2071,9 +2101,9 @@
         <v>3</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26">
+        <v>44</v>
+      </c>
+      <c r="C26" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2081,10 +2111,10 @@
       <c r="A27">
         <v>3</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="18">
+      <c r="B27" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="24">
         <v>2</v>
       </c>
       <c r="D27" s="18"/>
@@ -2094,9 +2124,9 @@
         <v>4</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="19">
+        <v>70</v>
+      </c>
+      <c r="C28" s="25">
         <v>6</v>
       </c>
     </row>
@@ -2105,9 +2135,9 @@
         <v>4</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="19">
+        <v>71</v>
+      </c>
+      <c r="C29" s="25">
         <v>7</v>
       </c>
     </row>
@@ -2116,9 +2146,9 @@
         <v>4</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="19">
+        <v>58</v>
+      </c>
+      <c r="C30" s="25">
         <v>7</v>
       </c>
     </row>
@@ -2127,9 +2157,9 @@
         <v>4</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31">
+        <v>51</v>
+      </c>
+      <c r="C31" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2138,9 +2168,9 @@
         <v>4</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32">
+        <v>59</v>
+      </c>
+      <c r="C32" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2149,9 +2179,9 @@
         <v>4</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33">
+        <v>72</v>
+      </c>
+      <c r="C33" s="12">
         <v>2</v>
       </c>
     </row>
@@ -2160,9 +2190,9 @@
         <v>4</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34">
+        <v>47</v>
+      </c>
+      <c r="C34" s="12">
         <v>2</v>
       </c>
     </row>
@@ -2171,9 +2201,9 @@
         <v>4</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35">
+        <v>73</v>
+      </c>
+      <c r="C35" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2182,9 +2212,9 @@
         <v>4</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36">
+        <v>74</v>
+      </c>
+      <c r="C36" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2192,14 +2222,14 @@
       <c r="A37">
         <v>4</v>
       </c>
-      <c r="B37" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="18">
+      <c r="B37" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="24">
         <v>2</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2207,9 +2237,9 @@
         <v>5</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="19">
+        <v>70</v>
+      </c>
+      <c r="C38" s="25">
         <v>3</v>
       </c>
     </row>
@@ -2218,13 +2248,13 @@
         <v>5</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="19">
+        <v>71</v>
+      </c>
+      <c r="C39" s="25">
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2232,9 +2262,9 @@
         <v>5</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="19">
+        <v>58</v>
+      </c>
+      <c r="C40" s="25">
         <v>7</v>
       </c>
     </row>
@@ -2243,9 +2273,9 @@
         <v>5</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="19">
+        <v>51</v>
+      </c>
+      <c r="C41" s="25">
         <v>7</v>
       </c>
     </row>
@@ -2254,9 +2284,9 @@
         <v>5</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42">
+        <v>59</v>
+      </c>
+      <c r="C42" s="12">
         <v>2</v>
       </c>
     </row>
@@ -2265,9 +2295,9 @@
         <v>5</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43">
+        <v>67</v>
+      </c>
+      <c r="C43" s="12">
         <v>2</v>
       </c>
     </row>
@@ -2276,9 +2306,9 @@
         <v>5</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44">
+        <v>48</v>
+      </c>
+      <c r="C44" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2287,13 +2317,13 @@
         <v>5</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45">
+        <v>57</v>
+      </c>
+      <c r="C45" s="12">
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2301,9 +2331,9 @@
         <v>5</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46">
+        <v>72</v>
+      </c>
+      <c r="C46" s="12">
         <v>2</v>
       </c>
     </row>
@@ -2312,232 +2342,235 @@
         <v>5</v>
       </c>
       <c r="B47" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="12">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
         <v>78</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
         <v>5</v>
       </c>
-      <c r="B48" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="18">
+      <c r="B48" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="24">
         <v>4</v>
       </c>
       <c r="D48" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="26">
+        <v>100</v>
+      </c>
+      <c r="D51" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49">
-        <v>6</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" s="19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50">
-        <v>6</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="19">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51">
-        <v>6</v>
-      </c>
-      <c r="B51" s="15" t="s">
+      <c r="E51" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="12">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="12">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>6</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="12">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>6</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>6</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="12">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>6</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>6</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="12">
+        <v>42</v>
+      </c>
+      <c r="D58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>6</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="12">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>6</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="12">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>6</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" s="12">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>6</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="12">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52">
-        <v>6</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53">
-        <v>6</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53">
-        <v>12</v>
-      </c>
-      <c r="D53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54">
-        <v>6</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C54">
-        <v>3</v>
-      </c>
-      <c r="D54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55">
-        <v>6</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56">
-        <v>6</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56">
-        <v>8</v>
-      </c>
-      <c r="D56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57">
-        <v>6</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58">
-        <v>6</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58">
-        <v>42</v>
-      </c>
-      <c r="D58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59">
-        <v>6</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C59">
-        <v>5</v>
-      </c>
-      <c r="D59" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60">
-        <v>6</v>
-      </c>
-      <c r="B60" s="16" t="s">
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C60">
-        <v>2</v>
-      </c>
-      <c r="D60" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61">
-        <v>6</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C61">
-        <v>4</v>
-      </c>
-      <c r="D61" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62">
-        <v>6</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63">
-        <v>6</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-      <c r="D63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64">
-        <v>6</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C64">
+      <c r="C64" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2546,9 +2579,9 @@
         <v>6</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C65" s="18">
+        <v>95</v>
+      </c>
+      <c r="C65" s="24">
         <v>1</v>
       </c>
       <c r="D65" s="18"/>
